--- a/data/kosdaq_ROE_11_upper.xlsx
+++ b/data/kosdaq_ROE_11_upper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,22 +439,27 @@
           <t>종목명</t>
         </is>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>종목코드</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="D1" s="1" t="n">
+      <c r="E1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="E1" s="1" t="n">
+      <c r="F1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="F1" s="1" t="n">
+      <c r="G1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="G1" s="1" t="n">
+      <c r="H1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>average</t>
         </is>
@@ -462,1514 +467,1784 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>디알젬</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>31.7</v>
+          <t>리노공업</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>058470</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>18.8</v>
       </c>
       <c r="E2" t="n">
-        <v>17.9</v>
+        <v>19.8</v>
       </c>
       <c r="F2" t="n">
-        <v>47</v>
+        <v>18.8</v>
       </c>
       <c r="G2" t="n">
-        <v>20.7</v>
+        <v>17.4</v>
       </c>
       <c r="H2" t="n">
-        <v>27.66</v>
+        <v>30</v>
+      </c>
+      <c r="I2" t="n">
+        <v>20.96</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>노바텍</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>31.7</v>
+          <t>동진쎄미켐</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>29.2</v>
+        <v>19.7</v>
       </c>
       <c r="E3" t="n">
-        <v>16.4</v>
+        <v>16.9</v>
       </c>
       <c r="F3" t="n">
-        <v>44.1</v>
+        <v>17.8</v>
       </c>
       <c r="G3" t="n">
-        <v>44.6</v>
+        <v>21.6</v>
       </c>
       <c r="H3" t="n">
-        <v>33.2</v>
+        <v>20.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>고려신용정보</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21.1</v>
+          <t>JYP Ent.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>035900</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>25.6</v>
+        <v>21.4</v>
       </c>
       <c r="E4" t="n">
-        <v>31.8</v>
+        <v>22.5</v>
       </c>
       <c r="F4" t="n">
-        <v>39.8</v>
+        <v>21.9</v>
       </c>
       <c r="G4" t="n">
-        <v>32.3</v>
+        <v>17.3</v>
       </c>
       <c r="H4" t="n">
-        <v>30.12</v>
+        <v>22.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>21.12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>에이치피오</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19.4</v>
+          <t>아프리카TV</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>067160</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="E5" t="n">
-        <v>24.7</v>
+        <v>26.6</v>
       </c>
       <c r="F5" t="n">
-        <v>35.6</v>
+        <v>32.5</v>
       </c>
       <c r="G5" t="n">
-        <v>16.5</v>
+        <v>27.6</v>
       </c>
       <c r="H5" t="n">
-        <v>24.02</v>
+        <v>42.6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>30.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이피티씨</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>60.8</v>
+          <t>티씨케이</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>064760</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>45.2</v>
+        <v>28.8</v>
       </c>
       <c r="E6" t="n">
-        <v>25.1</v>
+        <v>28.4</v>
       </c>
       <c r="F6" t="n">
-        <v>31.3</v>
+        <v>23.2</v>
       </c>
       <c r="G6" t="n">
-        <v>51.1</v>
+        <v>24.7</v>
       </c>
       <c r="H6" t="n">
-        <v>42.7</v>
+        <v>27.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>맘스터치</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>22.5</v>
+          <t>NICE평가정보</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>030190</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>26.3</v>
+        <v>18.8</v>
       </c>
       <c r="E7" t="n">
-        <v>18.2</v>
+        <v>20.7</v>
       </c>
       <c r="F7" t="n">
-        <v>29.6</v>
+        <v>19.3</v>
       </c>
       <c r="G7" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="H7" t="n">
-        <v>23.32</v>
+        <v>20.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>19.82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>웹케시</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>23.2</v>
+          <t>콜마비앤에이치</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>200130</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>27.2</v>
+        <v>30.9</v>
       </c>
       <c r="E8" t="n">
-        <v>24.2</v>
+        <v>25.9</v>
       </c>
       <c r="F8" t="n">
-        <v>28.7</v>
+        <v>23.8</v>
       </c>
       <c r="G8" t="n">
-        <v>18.8</v>
+        <v>27.9</v>
       </c>
       <c r="H8" t="n">
-        <v>24.42</v>
+        <v>19.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>25.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>콜마비앤에이치</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>30.9</v>
+          <t>덕산네오룩스</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>213420</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>25.9</v>
+        <v>14.5</v>
       </c>
       <c r="E9" t="n">
-        <v>23.8</v>
+        <v>14.3</v>
       </c>
       <c r="F9" t="n">
-        <v>27.9</v>
+        <v>12.7</v>
       </c>
       <c r="G9" t="n">
-        <v>19.9</v>
+        <v>18.9</v>
       </c>
       <c r="H9" t="n">
-        <v>25.68</v>
+        <v>23.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>서희건설</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>13.4</v>
+          <t>하나머티리얼즈</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>166090</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>13.2</v>
+        <v>30.6</v>
       </c>
       <c r="E10" t="n">
-        <v>18.6</v>
+        <v>35.3</v>
       </c>
       <c r="F10" t="n">
-        <v>27.8</v>
+        <v>20.9</v>
       </c>
       <c r="G10" t="n">
-        <v>29.8</v>
+        <v>22.8</v>
       </c>
       <c r="H10" t="n">
-        <v>20.56</v>
+        <v>29.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>아프리카TV</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>23.2</v>
+          <t>웹젠</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>069080</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>26.6</v>
+        <v>11.9</v>
       </c>
       <c r="E11" t="n">
-        <v>32.5</v>
+        <v>17.3</v>
       </c>
       <c r="F11" t="n">
-        <v>27.6</v>
+        <v>12.7</v>
       </c>
       <c r="G11" t="n">
-        <v>42.6</v>
+        <v>21.8</v>
       </c>
       <c r="H11" t="n">
-        <v>30.5</v>
+        <v>18.6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>휴온스</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>32.4</v>
+          <t>파크시스템스</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>140860</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>31.6</v>
+        <v>16</v>
       </c>
       <c r="E12" t="n">
-        <v>21.4</v>
+        <v>16.8</v>
       </c>
       <c r="F12" t="n">
-        <v>25.7</v>
+        <v>21.1</v>
       </c>
       <c r="G12" t="n">
-        <v>16.8</v>
+        <v>20.4</v>
       </c>
       <c r="H12" t="n">
-        <v>25.58</v>
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17.06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>다나와</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>19</v>
+          <t>엘앤씨바이오</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>290650</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>19.7</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>23.6</v>
+        <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>25.1</v>
+        <v>13.1</v>
       </c>
       <c r="G13" t="n">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="H13" t="n">
-        <v>21.48</v>
+        <v>11</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17.14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>위닉스</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>12</v>
+          <t>코웰패션</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>033290</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>17.5</v>
+        <v>29.7</v>
       </c>
       <c r="E14" t="n">
-        <v>29.9</v>
+        <v>26.8</v>
       </c>
       <c r="F14" t="n">
-        <v>24.9</v>
+        <v>22.7</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H14" t="n">
-        <v>19.86</v>
+        <v>17.4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23.92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>에스앤디</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>20.1</v>
+          <t>맘스터치</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>220630</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>22.5</v>
       </c>
       <c r="E15" t="n">
-        <v>20.7</v>
+        <v>26.3</v>
       </c>
       <c r="F15" t="n">
-        <v>24.7</v>
+        <v>18.2</v>
       </c>
       <c r="G15" t="n">
-        <v>14.7</v>
+        <v>29.6</v>
       </c>
       <c r="H15" t="n">
-        <v>19.44</v>
+        <v>20</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23.32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>티씨케이</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>28.8</v>
+          <t>테스나</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>131970</t>
+        </is>
       </c>
       <c r="D16" t="n">
-        <v>28.4</v>
+        <v>14.3</v>
       </c>
       <c r="E16" t="n">
-        <v>23.2</v>
+        <v>21.9</v>
       </c>
       <c r="F16" t="n">
-        <v>24.7</v>
+        <v>17.5</v>
       </c>
       <c r="G16" t="n">
-        <v>27.7</v>
+        <v>19.2</v>
       </c>
       <c r="H16" t="n">
-        <v>26.56</v>
+        <v>15.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>노바렉스</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>16.8</v>
+          <t>코미코</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>183300</t>
+        </is>
       </c>
       <c r="D17" t="n">
-        <v>14.5</v>
+        <v>34.4</v>
       </c>
       <c r="E17" t="n">
-        <v>17.2</v>
+        <v>36</v>
       </c>
       <c r="F17" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H17" t="n">
         <v>24.3</v>
       </c>
-      <c r="G17" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>18.54</v>
+      <c r="I17" t="n">
+        <v>26.36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>디앤씨미디어</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>23.4</v>
+          <t>휴온스</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>243070</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>14.4</v>
+        <v>32.4</v>
       </c>
       <c r="E18" t="n">
-        <v>12.4</v>
+        <v>31.6</v>
       </c>
       <c r="F18" t="n">
-        <v>23.2</v>
+        <v>21.4</v>
       </c>
       <c r="G18" t="n">
-        <v>28.8</v>
+        <v>25.7</v>
       </c>
       <c r="H18" t="n">
-        <v>20.44</v>
+        <v>16.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>코웰패션</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>29.7</v>
+          <t>크리스에프앤씨</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>110790</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>26.8</v>
+        <v>32.2</v>
       </c>
       <c r="E19" t="n">
-        <v>22.7</v>
+        <v>20.7</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>11.8</v>
       </c>
       <c r="G19" t="n">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="H19" t="n">
-        <v>23.92</v>
+        <v>21.8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20.68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이크레더블</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>27.5</v>
+          <t>에프에스티</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>036810</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>27.8</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>26.8</v>
+        <v>19.4</v>
       </c>
       <c r="F20" t="n">
-        <v>23.4</v>
+        <v>17.5</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>15.3</v>
       </c>
       <c r="H20" t="n">
-        <v>25.7</v>
+        <v>25.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한국기업평가</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>17.7</v>
+          <t>에이피티씨</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>089970</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>18.5</v>
+        <v>60.8</v>
       </c>
       <c r="E21" t="n">
-        <v>21</v>
+        <v>45.2</v>
       </c>
       <c r="F21" t="n">
-        <v>19.9</v>
+        <v>25.1</v>
       </c>
       <c r="G21" t="n">
-        <v>23</v>
+        <v>31.3</v>
       </c>
       <c r="H21" t="n">
-        <v>20.02</v>
+        <v>51.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>42.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>하나머티리얼즈</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>30.6</v>
+          <t>원익피앤이</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>131390</t>
+        </is>
       </c>
       <c r="D22" t="n">
-        <v>35.3</v>
+        <v>14.6</v>
       </c>
       <c r="E22" t="n">
-        <v>20.9</v>
+        <v>18.3</v>
       </c>
       <c r="F22" t="n">
-        <v>22.8</v>
+        <v>21.8</v>
       </c>
       <c r="G22" t="n">
-        <v>29.5</v>
+        <v>20.2</v>
       </c>
       <c r="H22" t="n">
-        <v>27.82</v>
+        <v>12.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17.46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>코세스</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>112.7</v>
+          <t>에스에이엠티</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>031330</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>51.6</v>
+        <v>16.3</v>
       </c>
       <c r="E23" t="n">
-        <v>26</v>
+        <v>15.7</v>
       </c>
       <c r="F23" t="n">
-        <v>22.8</v>
+        <v>16.6</v>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>17.6</v>
       </c>
       <c r="H23" t="n">
-        <v>48.22000000000001</v>
+        <v>22.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>17.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>월덱스</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>101160</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>13.9</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>28.2</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>24.2</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>22</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>27.3</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>23.12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>웹젠</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>11.9</v>
+          <t>코엔텍</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>029960</t>
+        </is>
       </c>
       <c r="D25" t="n">
-        <v>17.3</v>
+        <v>13.4</v>
       </c>
       <c r="E25" t="n">
-        <v>12.7</v>
+        <v>18.7</v>
       </c>
       <c r="F25" t="n">
-        <v>21.8</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>18.6</v>
+        <v>16.8</v>
       </c>
       <c r="H25" t="n">
-        <v>16.46</v>
+        <v>16.8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16.34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>102</v>
+        <v>209</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>동진쎄미켐</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>19.7</v>
+          <t>노바텍</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>285490</t>
+        </is>
       </c>
       <c r="D26" t="n">
-        <v>16.9</v>
+        <v>31.7</v>
       </c>
       <c r="E26" t="n">
-        <v>17.8</v>
+        <v>29.2</v>
       </c>
       <c r="F26" t="n">
-        <v>21.6</v>
+        <v>16.4</v>
       </c>
       <c r="G26" t="n">
-        <v>20.8</v>
+        <v>44.1</v>
       </c>
       <c r="H26" t="n">
-        <v>19.36</v>
+        <v>44.6</v>
+      </c>
+      <c r="I26" t="n">
+        <v>33.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>파크시스템스</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>16</v>
+          <t>서희건설</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>035890</t>
+        </is>
       </c>
       <c r="D27" t="n">
-        <v>16.8</v>
+        <v>13.4</v>
       </c>
       <c r="E27" t="n">
-        <v>21.1</v>
+        <v>13.2</v>
       </c>
       <c r="F27" t="n">
-        <v>20.4</v>
+        <v>18.6</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>27.8</v>
       </c>
       <c r="H27" t="n">
-        <v>17.06</v>
+        <v>29.8</v>
+      </c>
+      <c r="I27" t="n">
+        <v>20.56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>오션브릿지</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>25</v>
+          <t>디앤씨미디어</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>263720</t>
+        </is>
       </c>
       <c r="D28" t="n">
-        <v>29.4</v>
+        <v>23.4</v>
       </c>
       <c r="E28" t="n">
-        <v>17.7</v>
+        <v>14.4</v>
       </c>
       <c r="F28" t="n">
-        <v>20.2</v>
+        <v>12.4</v>
       </c>
       <c r="G28" t="n">
-        <v>12.6</v>
+        <v>23.2</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98</v>
+        <v>28.8</v>
+      </c>
+      <c r="I28" t="n">
+        <v>20.44</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>엠브레인</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>30.2</v>
+          <t>노바렉스</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>194700</t>
+        </is>
       </c>
       <c r="D29" t="n">
-        <v>19.2</v>
+        <v>16.8</v>
       </c>
       <c r="E29" t="n">
-        <v>23.5</v>
+        <v>14.5</v>
       </c>
       <c r="F29" t="n">
-        <v>20.2</v>
+        <v>17.2</v>
       </c>
       <c r="G29" t="n">
-        <v>36.3</v>
+        <v>24.3</v>
       </c>
       <c r="H29" t="n">
-        <v>25.88</v>
+        <v>19.9</v>
+      </c>
+      <c r="I29" t="n">
+        <v>18.54</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>원익피앤이</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>14.6</v>
+          <t>유니셈</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>036200</t>
+        </is>
       </c>
       <c r="D30" t="n">
-        <v>18.3</v>
+        <v>29.8</v>
       </c>
       <c r="E30" t="n">
-        <v>21.8</v>
+        <v>22.7</v>
       </c>
       <c r="F30" t="n">
-        <v>20.2</v>
+        <v>18.6</v>
       </c>
       <c r="G30" t="n">
-        <v>12.4</v>
+        <v>15.3</v>
       </c>
       <c r="H30" t="n">
-        <v>17.46</v>
+        <v>27.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>22.74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>제노레이</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>26.5</v>
+          <t>한국기업평가</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>034950</t>
+        </is>
       </c>
       <c r="D31" t="n">
-        <v>27.4</v>
+        <v>17.7</v>
       </c>
       <c r="E31" t="n">
-        <v>25.3</v>
+        <v>18.5</v>
       </c>
       <c r="F31" t="n">
-        <v>16.1</v>
+        <v>21</v>
       </c>
       <c r="G31" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="H31" t="n">
         <v>23</v>
       </c>
+      <c r="I31" t="n">
+        <v>20.02</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NICE평가정보</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>18.8</v>
+          <t>인크로스</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>216050</t>
+        </is>
       </c>
       <c r="D32" t="n">
-        <v>20.7</v>
+        <v>15.3</v>
       </c>
       <c r="E32" t="n">
-        <v>19.3</v>
+        <v>13.8</v>
       </c>
       <c r="F32" t="n">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="G32" t="n">
-        <v>20.8</v>
+        <v>17.6</v>
       </c>
       <c r="H32" t="n">
-        <v>19.82</v>
+        <v>21.6</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>테스나</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>14.3</v>
+          <t>웹케시</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>053580</t>
+        </is>
       </c>
       <c r="D33" t="n">
-        <v>21.9</v>
+        <v>23.2</v>
       </c>
       <c r="E33" t="n">
-        <v>17.5</v>
+        <v>27.2</v>
       </c>
       <c r="F33" t="n">
-        <v>19.2</v>
+        <v>24.2</v>
       </c>
       <c r="G33" t="n">
-        <v>15.2</v>
+        <v>28.7</v>
       </c>
       <c r="H33" t="n">
-        <v>17.62</v>
+        <v>18.8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>24.42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>134</v>
+        <v>251</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>덕산네오룩스</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>14.5</v>
+          <t>위닉스</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>044340</t>
+        </is>
       </c>
       <c r="D34" t="n">
-        <v>14.3</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>12.7</v>
+        <v>17.5</v>
       </c>
       <c r="F34" t="n">
-        <v>18.9</v>
+        <v>29.9</v>
       </c>
       <c r="G34" t="n">
-        <v>23.4</v>
+        <v>24.9</v>
       </c>
       <c r="H34" t="n">
-        <v>16.76</v>
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>19.86</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>위세아이텍</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>17.9</v>
+          <t>GST</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>083450</t>
+        </is>
       </c>
       <c r="D35" t="n">
-        <v>19.5</v>
+        <v>23.3</v>
       </c>
       <c r="E35" t="n">
-        <v>27.3</v>
+        <v>12.4</v>
       </c>
       <c r="F35" t="n">
-        <v>18.8</v>
+        <v>19.8</v>
       </c>
       <c r="G35" t="n">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
       <c r="H35" t="n">
-        <v>19.38</v>
+        <v>32.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>20.54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>엘앤씨바이오</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>28</v>
+          <t>다나와</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>119860</t>
+        </is>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
-        <v>13.1</v>
+        <v>19.7</v>
       </c>
       <c r="F36" t="n">
-        <v>18.6</v>
+        <v>23.6</v>
       </c>
       <c r="G36" t="n">
-        <v>11</v>
+        <v>25.1</v>
       </c>
       <c r="H36" t="n">
-        <v>17.14</v>
+        <v>20</v>
+      </c>
+      <c r="I36" t="n">
+        <v>21.48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>141</v>
+        <v>298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>나이스디앤비</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>17.8</v>
+          <t>와이엠티</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>251370</t>
+        </is>
       </c>
       <c r="D37" t="n">
-        <v>22.2</v>
+        <v>14.2</v>
       </c>
       <c r="E37" t="n">
-        <v>21.2</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="G37" t="n">
-        <v>22.9</v>
+        <v>15.9</v>
       </c>
       <c r="H37" t="n">
-        <v>20.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.44</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>151</v>
+        <v>314</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>에스에이엠티</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>16.3</v>
+          <t>케이아이엔엑스</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>093320</t>
+        </is>
       </c>
       <c r="D38" t="n">
-        <v>15.7</v>
+        <v>11.8</v>
       </c>
       <c r="E38" t="n">
-        <v>16.6</v>
+        <v>19.6</v>
       </c>
       <c r="F38" t="n">
-        <v>17.6</v>
+        <v>20.1</v>
       </c>
       <c r="G38" t="n">
-        <v>22.3</v>
+        <v>15.6</v>
       </c>
       <c r="H38" t="n">
-        <v>17.7</v>
+        <v>14.5</v>
+      </c>
+      <c r="I38" t="n">
+        <v>16.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>152</v>
+        <v>321</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>인크로스</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15.3</v>
+          <t>슈피겐코리아</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>192440</t>
+        </is>
       </c>
       <c r="D39" t="n">
-        <v>13.8</v>
+        <v>19.6</v>
       </c>
       <c r="E39" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="F39" t="n">
         <v>14.5</v>
       </c>
-      <c r="F39" t="n">
-        <v>17.6</v>
-      </c>
       <c r="G39" t="n">
-        <v>21.6</v>
+        <v>17</v>
       </c>
       <c r="H39" t="n">
+        <v>14</v>
+      </c>
+      <c r="I39" t="n">
         <v>16.56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>156</v>
+        <v>342</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>노터스</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>35.4</v>
+          <t>에이치피오</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>357230</t>
+        </is>
       </c>
       <c r="D40" t="n">
         <v>19.4</v>
       </c>
       <c r="E40" t="n">
-        <v>13.4</v>
+        <v>23.9</v>
       </c>
       <c r="F40" t="n">
-        <v>17.4</v>
+        <v>24.7</v>
       </c>
       <c r="G40" t="n">
-        <v>12.9</v>
+        <v>35.6</v>
       </c>
       <c r="H40" t="n">
-        <v>19.7</v>
+        <v>16.5</v>
+      </c>
+      <c r="I40" t="n">
+        <v>24.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>157</v>
+        <v>370</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>리노공업</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>18.8</v>
+          <t>민앤지</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>214180</t>
+        </is>
       </c>
       <c r="D41" t="n">
-        <v>19.8</v>
+        <v>17</v>
       </c>
       <c r="E41" t="n">
-        <v>18.8</v>
+        <v>14.8</v>
       </c>
       <c r="F41" t="n">
-        <v>17.4</v>
+        <v>15.7</v>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>15.9</v>
       </c>
       <c r="H41" t="n">
-        <v>20.96</v>
+        <v>15.3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>15.74</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>160</v>
+        <v>398</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>JYP Ent.</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>21.4</v>
+          <t>이크레더블</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>092130</t>
+        </is>
       </c>
       <c r="D42" t="n">
-        <v>22.5</v>
+        <v>27.5</v>
       </c>
       <c r="E42" t="n">
-        <v>21.9</v>
+        <v>27.8</v>
       </c>
       <c r="F42" t="n">
-        <v>17.3</v>
+        <v>26.8</v>
       </c>
       <c r="G42" t="n">
-        <v>22.5</v>
+        <v>23.4</v>
       </c>
       <c r="H42" t="n">
-        <v>21.12</v>
+        <v>23</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>166</v>
+        <v>403</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>슈피겐코리아</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>19.6</v>
+          <t>노터스</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>278650</t>
+        </is>
       </c>
       <c r="D43" t="n">
-        <v>17.7</v>
+        <v>35.4</v>
       </c>
       <c r="E43" t="n">
-        <v>14.5</v>
+        <v>19.4</v>
       </c>
       <c r="F43" t="n">
-        <v>17</v>
+        <v>13.4</v>
       </c>
       <c r="G43" t="n">
-        <v>14</v>
+        <v>17.4</v>
       </c>
       <c r="H43" t="n">
-        <v>16.56</v>
+        <v>12.9</v>
+      </c>
+      <c r="I43" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>크리스에프앤씨</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>32.2</v>
+          <t>네오팜</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>092730</t>
+        </is>
       </c>
       <c r="D44" t="n">
-        <v>20.7</v>
+        <v>26.8</v>
       </c>
       <c r="E44" t="n">
-        <v>11.8</v>
+        <v>28.8</v>
       </c>
       <c r="F44" t="n">
-        <v>16.9</v>
+        <v>23.3</v>
       </c>
       <c r="G44" t="n">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="H44" t="n">
-        <v>20.68</v>
+        <v>14.2</v>
+      </c>
+      <c r="I44" t="n">
+        <v>21.86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>171</v>
+        <v>463</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>코엔텍</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>13.4</v>
+          <t>코세스</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>089890</t>
+        </is>
       </c>
       <c r="D45" t="n">
-        <v>18.7</v>
+        <v>112.7</v>
       </c>
       <c r="E45" t="n">
-        <v>16</v>
+        <v>51.6</v>
       </c>
       <c r="F45" t="n">
-        <v>16.8</v>
+        <v>26</v>
       </c>
       <c r="G45" t="n">
-        <v>16.8</v>
+        <v>22.8</v>
       </c>
       <c r="H45" t="n">
-        <v>16.34</v>
+        <v>28</v>
+      </c>
+      <c r="I45" t="n">
+        <v>48.22000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>181</v>
+        <v>590</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>네오팜</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>26.8</v>
+          <t>DSC인베스트먼트</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>241520</t>
+        </is>
       </c>
       <c r="D46" t="n">
-        <v>28.8</v>
+        <v>11</v>
       </c>
       <c r="E46" t="n">
-        <v>23.3</v>
+        <v>19.5</v>
       </c>
       <c r="F46" t="n">
-        <v>16.2</v>
+        <v>25.9</v>
       </c>
       <c r="G46" t="n">
-        <v>14.2</v>
+        <v>51</v>
       </c>
       <c r="H46" t="n">
-        <v>21.86</v>
+        <v>15.1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>24.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>185</v>
+        <v>613</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>코미코</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>34.4</v>
+          <t>오션브릿지</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>241790</t>
+        </is>
       </c>
       <c r="D47" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E47" t="n">
-        <v>21</v>
+        <v>29.4</v>
       </c>
       <c r="F47" t="n">
-        <v>16.1</v>
+        <v>17.7</v>
       </c>
       <c r="G47" t="n">
-        <v>24.3</v>
+        <v>20.2</v>
       </c>
       <c r="H47" t="n">
-        <v>26.36</v>
+        <v>12.6</v>
+      </c>
+      <c r="I47" t="n">
+        <v>20.98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>187</v>
+        <v>633</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>와이엠티</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>14.2</v>
+          <t>제노레이</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>122310</t>
+        </is>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>26.5</v>
       </c>
       <c r="E48" t="n">
-        <v>18.6</v>
+        <v>27.4</v>
       </c>
       <c r="F48" t="n">
-        <v>15.9</v>
+        <v>25.3</v>
       </c>
       <c r="G48" t="n">
-        <v>11.5</v>
+        <v>16.1</v>
       </c>
       <c r="H48" t="n">
-        <v>14.44</v>
+        <v>19.7</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>189</v>
+        <v>635</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>민앤지</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>17</v>
+          <t>나이스디앤비</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>130580</t>
+        </is>
       </c>
       <c r="D49" t="n">
-        <v>14.8</v>
+        <v>17.8</v>
       </c>
       <c r="E49" t="n">
-        <v>15.7</v>
+        <v>22.2</v>
       </c>
       <c r="F49" t="n">
-        <v>15.9</v>
+        <v>21.2</v>
       </c>
       <c r="G49" t="n">
-        <v>15.3</v>
+        <v>18.4</v>
       </c>
       <c r="H49" t="n">
-        <v>15.74</v>
+        <v>22.9</v>
+      </c>
+      <c r="I49" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>196</v>
+        <v>729</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>케이아이엔엑스</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>11.8</v>
+          <t>씨엠에스에듀</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>225330</t>
+        </is>
       </c>
       <c r="D50" t="n">
-        <v>19.6</v>
+        <v>15</v>
       </c>
       <c r="E50" t="n">
-        <v>20.1</v>
+        <v>12.3</v>
       </c>
       <c r="F50" t="n">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="G50" t="n">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="H50" t="n">
-        <v>16.32</v>
+        <v>23.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>198</v>
+        <v>788</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>에프에스티</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>14</v>
+          <t>고려신용정보</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>049720</t>
+        </is>
       </c>
       <c r="D51" t="n">
-        <v>19.4</v>
+        <v>21.1</v>
       </c>
       <c r="E51" t="n">
-        <v>17.5</v>
+        <v>25.6</v>
       </c>
       <c r="F51" t="n">
-        <v>15.3</v>
+        <v>31.8</v>
       </c>
       <c r="G51" t="n">
-        <v>25.1</v>
+        <v>39.8</v>
       </c>
       <c r="H51" t="n">
-        <v>18.26</v>
+        <v>32.3</v>
+      </c>
+      <c r="I51" t="n">
+        <v>30.12</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>200</v>
+        <v>832</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>유니셈</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>29.8</v>
+          <t>디알젬</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>263690</t>
+        </is>
       </c>
       <c r="D52" t="n">
-        <v>22.7</v>
+        <v>31.7</v>
       </c>
       <c r="E52" t="n">
-        <v>18.6</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
-        <v>15.3</v>
+        <v>17.9</v>
       </c>
       <c r="G52" t="n">
-        <v>27.3</v>
+        <v>47</v>
       </c>
       <c r="H52" t="n">
-        <v>22.74</v>
+        <v>20.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>27.66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>201</v>
+        <v>941</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>씨엠에스에듀</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>15</v>
+          <t>위세아이텍</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>065370</t>
+        </is>
       </c>
       <c r="D53" t="n">
-        <v>12.3</v>
+        <v>17.9</v>
       </c>
       <c r="E53" t="n">
-        <v>15.3</v>
+        <v>19.5</v>
       </c>
       <c r="F53" t="n">
-        <v>15.3</v>
+        <v>27.3</v>
       </c>
       <c r="G53" t="n">
-        <v>23.1</v>
+        <v>18.8</v>
       </c>
       <c r="H53" t="n">
-        <v>16.2</v>
+        <v>13.4</v>
+      </c>
+      <c r="I53" t="n">
+        <v>19.38</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>208</v>
+        <v>1086</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>GST</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>23.3</v>
+          <t>에스앤디</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>260970</t>
+        </is>
       </c>
       <c r="D54" t="n">
-        <v>12.4</v>
+        <v>20.1</v>
       </c>
       <c r="E54" t="n">
-        <v>19.8</v>
+        <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>15.1</v>
+        <v>20.7</v>
       </c>
       <c r="G54" t="n">
-        <v>32.1</v>
+        <v>24.7</v>
       </c>
       <c r="H54" t="n">
-        <v>20.54</v>
+        <v>14.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>19.44</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>213</v>
+        <v>1309</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DSC인베스트먼트</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>11</v>
+          <t>엠브레인</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>169330</t>
+        </is>
       </c>
       <c r="D55" t="n">
-        <v>19.5</v>
+        <v>30.2</v>
       </c>
       <c r="E55" t="n">
-        <v>25.9</v>
+        <v>19.2</v>
       </c>
       <c r="F55" t="n">
-        <v>51</v>
+        <v>23.5</v>
       </c>
       <c r="G55" t="n">
-        <v>15.1</v>
+        <v>20.2</v>
       </c>
       <c r="H55" t="n">
-        <v>24.5</v>
+        <v>36.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25.88</v>
       </c>
     </row>
   </sheetData>

--- a/data/kosdaq_ROE_11_upper.xlsx
+++ b/data/kosdaq_ROE_11_upper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730D8A71-1662-4178-990F-933C1FA89F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E50F9B-F4F5-4F37-BEE0-087307B5E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41010" yWindow="90" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -310,6 +310,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="000000"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -392,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -405,6 +408,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -710,16 +717,19 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K55" sqref="K54:K55"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="8.6640625" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1">
@@ -751,7 +761,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>58470</v>
       </c>
       <c r="D2">
@@ -783,7 +793,7 @@
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>5290</v>
       </c>
       <c r="D3">
@@ -815,7 +825,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>35900</v>
       </c>
       <c r="D4">
@@ -847,7 +857,7 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>67160</v>
       </c>
       <c r="D5">
@@ -879,7 +889,7 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>64760</v>
       </c>
       <c r="D6">
@@ -911,7 +921,7 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>30190</v>
       </c>
       <c r="D7">
@@ -943,7 +953,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>200130</v>
       </c>
       <c r="D8">
@@ -975,7 +985,7 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>213420</v>
       </c>
       <c r="D9">
@@ -1007,7 +1017,7 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>166090</v>
       </c>
       <c r="D10">
@@ -1039,7 +1049,7 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>69080</v>
       </c>
       <c r="D11">
@@ -1071,7 +1081,7 @@
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>140860</v>
       </c>
       <c r="D12">
@@ -1103,7 +1113,7 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>290650</v>
       </c>
       <c r="D13">
@@ -1135,7 +1145,7 @@
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>33290</v>
       </c>
       <c r="D14">
@@ -1167,7 +1177,7 @@
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>220630</v>
       </c>
       <c r="D15">
@@ -1199,7 +1209,7 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>131970</v>
       </c>
       <c r="D16">
@@ -1231,7 +1241,7 @@
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>183300</v>
       </c>
       <c r="D17">
@@ -1263,7 +1273,7 @@
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>243070</v>
       </c>
       <c r="D18">
@@ -1295,7 +1305,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>110790</v>
       </c>
       <c r="D19">
@@ -1327,7 +1337,7 @@
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>36810</v>
       </c>
       <c r="D20">
@@ -1359,7 +1369,7 @@
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>89970</v>
       </c>
       <c r="D21">
@@ -1391,7 +1401,7 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>131390</v>
       </c>
       <c r="D22">
@@ -1423,7 +1433,7 @@
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>31330</v>
       </c>
       <c r="D23">
@@ -1455,7 +1465,7 @@
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="7">
         <v>101160</v>
       </c>
       <c r="D24">
@@ -1487,7 +1497,7 @@
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="7">
         <v>29960</v>
       </c>
       <c r="D25">
@@ -1519,7 +1529,7 @@
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="7">
         <v>285490</v>
       </c>
       <c r="D26">
@@ -1551,7 +1561,7 @@
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="7">
         <v>35890</v>
       </c>
       <c r="D27">
@@ -1583,7 +1593,7 @@
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="7">
         <v>263720</v>
       </c>
       <c r="D28">
@@ -1615,7 +1625,7 @@
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="7">
         <v>194700</v>
       </c>
       <c r="D29">
@@ -1647,7 +1657,7 @@
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="7">
         <v>36200</v>
       </c>
       <c r="D30">
@@ -1679,7 +1689,7 @@
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="7">
         <v>34950</v>
       </c>
       <c r="D31">
@@ -1711,7 +1721,7 @@
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="7">
         <v>216050</v>
       </c>
       <c r="D32">
@@ -1743,7 +1753,7 @@
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="7">
         <v>53580</v>
       </c>
       <c r="D33">
@@ -1775,7 +1785,7 @@
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="7">
         <v>44340</v>
       </c>
       <c r="D34">
@@ -1807,7 +1817,7 @@
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="7">
         <v>83450</v>
       </c>
       <c r="D35">
@@ -1839,7 +1849,7 @@
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="7">
         <v>119860</v>
       </c>
       <c r="D36">
@@ -1871,7 +1881,7 @@
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="7">
         <v>251370</v>
       </c>
       <c r="D37">
@@ -1903,7 +1913,7 @@
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="7">
         <v>93320</v>
       </c>
       <c r="D38">
@@ -1935,7 +1945,7 @@
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="7">
         <v>192440</v>
       </c>
       <c r="D39">
@@ -1967,7 +1977,7 @@
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="7">
         <v>357230</v>
       </c>
       <c r="D40">
@@ -1999,7 +2009,7 @@
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="7">
         <v>214180</v>
       </c>
       <c r="D41">
@@ -2031,7 +2041,7 @@
       <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="7">
         <v>92130</v>
       </c>
       <c r="D42">
@@ -2063,7 +2073,7 @@
       <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="7">
         <v>278650</v>
       </c>
       <c r="D43">
@@ -2095,7 +2105,7 @@
       <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="7">
         <v>92730</v>
       </c>
       <c r="D44">
@@ -2127,7 +2137,7 @@
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="7">
         <v>89890</v>
       </c>
       <c r="D45">
@@ -2159,7 +2169,7 @@
       <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="7">
         <v>241520</v>
       </c>
       <c r="D46">
@@ -2191,7 +2201,7 @@
       <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="7">
         <v>241790</v>
       </c>
       <c r="D47">
@@ -2223,7 +2233,7 @@
       <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="7">
         <v>122310</v>
       </c>
       <c r="D48">
@@ -2255,7 +2265,7 @@
       <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="7">
         <v>130580</v>
       </c>
       <c r="D49">
@@ -2287,7 +2297,7 @@
       <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="7">
         <v>225330</v>
       </c>
       <c r="D50">
@@ -2319,7 +2329,7 @@
       <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="7">
         <v>49720</v>
       </c>
       <c r="D51">
@@ -2351,7 +2361,7 @@
       <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="7">
         <v>263690</v>
       </c>
       <c r="D52">
@@ -2383,7 +2393,7 @@
       <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="7">
         <v>65370</v>
       </c>
       <c r="D53">
@@ -2415,7 +2425,7 @@
       <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="7">
         <v>260970</v>
       </c>
       <c r="D54">
@@ -2447,7 +2457,7 @@
       <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="7">
         <v>169330</v>
       </c>
       <c r="D55">

--- a/data/kosdaq_ROE_11_upper.xlsx
+++ b/data/kosdaq_ROE_11_upper.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E50F9B-F4F5-4F37-BEE0-087307B5E535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5787488-0618-4E4E-9550-B633C7BDE11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41010" yWindow="90" windowWidth="19200" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$55</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
   <si>
     <t>종목명</t>
   </si>
@@ -303,6 +306,34 @@
   </si>
   <si>
     <t>음식료,담배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WICS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스플레이장비와부품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반도체와반도체장비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상업서비스와공급품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자장비와기기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강관리장비와물품</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +342,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="000000"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -408,10 +439,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -714,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
@@ -725,7 +756,7 @@
     <col min="3" max="3" width="8.6640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,8 +784,11 @@
       <c r="J1" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -785,8 +819,11 @@
       <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>17</v>
       </c>
@@ -817,8 +854,11 @@
       <c r="J3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>20</v>
       </c>
@@ -850,7 +890,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -882,7 +922,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>34</v>
       </c>
@@ -913,8 +953,11 @@
       <c r="J6" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>43</v>
       </c>
@@ -946,7 +989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>47</v>
       </c>
@@ -977,8 +1020,11 @@
       <c r="J8" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>50</v>
       </c>
@@ -1009,8 +1055,11 @@
       <c r="J9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>51</v>
       </c>
@@ -1041,8 +1090,11 @@
       <c r="J10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>74</v>
       </c>
@@ -1074,7 +1126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>76</v>
       </c>
@@ -1105,8 +1157,11 @@
       <c r="J12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>87</v>
       </c>
@@ -1137,8 +1192,11 @@
       <c r="J13" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>95</v>
       </c>
@@ -1170,7 +1228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>106</v>
       </c>
@@ -1202,7 +1260,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>108</v>
       </c>
@@ -1233,8 +1291,11 @@
       <c r="J16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>132</v>
       </c>
@@ -1265,8 +1326,11 @@
       <c r="J17" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>146</v>
       </c>
@@ -1297,8 +1361,11 @@
       <c r="J18" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>161</v>
       </c>
@@ -1330,7 +1397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>165</v>
       </c>
@@ -1361,8 +1428,11 @@
       <c r="J20" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>167</v>
       </c>
@@ -1394,7 +1464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>177</v>
       </c>
@@ -1426,7 +1496,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>186</v>
       </c>
@@ -1458,7 +1528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>191</v>
       </c>
@@ -1489,8 +1559,11 @@
       <c r="J24" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>205</v>
       </c>
@@ -1522,7 +1595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>209</v>
       </c>
@@ -1554,7 +1627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>218</v>
       </c>
@@ -1586,7 +1659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>225</v>
       </c>
@@ -1618,7 +1691,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>229</v>
       </c>
@@ -1649,8 +1722,11 @@
       <c r="J29" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>230</v>
       </c>
@@ -1681,8 +1757,11 @@
       <c r="J30" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>236</v>
       </c>
@@ -1713,8 +1792,11 @@
       <c r="J31" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>241</v>
       </c>
@@ -1746,7 +1828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>248</v>
       </c>
@@ -1778,7 +1860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>251</v>
       </c>
@@ -1810,7 +1892,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>275</v>
       </c>
@@ -1841,8 +1923,11 @@
       <c r="J35" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>280</v>
       </c>
@@ -1874,7 +1959,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>298</v>
       </c>
@@ -1906,7 +1991,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>314</v>
       </c>
@@ -1938,7 +2023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>321</v>
       </c>
@@ -1970,7 +2055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>342</v>
       </c>
@@ -2001,8 +2086,11 @@
       <c r="J40" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>370</v>
       </c>
@@ -2034,7 +2122,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>398</v>
       </c>
@@ -2066,7 +2154,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>403</v>
       </c>
@@ -2098,7 +2186,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>432</v>
       </c>
@@ -2130,7 +2218,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>463</v>
       </c>
@@ -2161,8 +2249,11 @@
       <c r="J45" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>590</v>
       </c>
@@ -2194,7 +2285,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>613</v>
       </c>
@@ -2225,8 +2316,11 @@
       <c r="J47" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>633</v>
       </c>
@@ -2257,8 +2351,11 @@
       <c r="J48" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>635</v>
       </c>
@@ -2289,8 +2386,11 @@
       <c r="J49" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>729</v>
       </c>
@@ -2322,7 +2422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>788</v>
       </c>
@@ -2353,8 +2453,11 @@
       <c r="J51" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>832</v>
       </c>
@@ -2385,8 +2488,11 @@
       <c r="J52" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>941</v>
       </c>
@@ -2418,7 +2524,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>1086</v>
       </c>
@@ -2449,8 +2555,11 @@
       <c r="J54" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>1309</v>
       </c>

--- a/data/kosdaq_ROE_11_upper.xlsx
+++ b/data/kosdaq_ROE_11_upper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\easya\Workspace\HK_Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\HK_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5787488-0618-4E4E-9550-B633C7BDE11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D70D7AFB-89D9-40F8-8875-1951EB6D6C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4812" yWindow="2316" windowWidth="15480" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>종목명</t>
   </si>
@@ -194,147 +194,6 @@
   </si>
   <si>
     <t>엠브레인</t>
-  </si>
-  <si>
-    <t>산업</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체</t>
-  </si>
-  <si>
-    <t>반도체</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오락,문화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소프트웨어</t>
-  </si>
-  <si>
-    <t>소프트웨어</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타서비스</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제약</t>
-  </si>
-  <si>
-    <t>제약</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털컨텐츠</t>
-  </si>
-  <si>
-    <t>의료,정밀기기</t>
-  </si>
-  <si>
-    <t>의료,정밀기기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도매</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>섬유,의류</t>
-  </si>
-  <si>
-    <t>기계,장비</t>
-  </si>
-  <si>
-    <t>일반전기전자</t>
-  </si>
-  <si>
-    <t>환경</t>
-  </si>
-  <si>
-    <t>기타제조</t>
-  </si>
-  <si>
-    <t>종합건설</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털컨텐츠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>음식료,담배</t>
-  </si>
-  <si>
-    <t>사업지원</t>
-  </si>
-  <si>
-    <t>전문기술</t>
-  </si>
-  <si>
-    <t>금융</t>
-  </si>
-  <si>
-    <t>인터넷</t>
-  </si>
-  <si>
-    <t>화학</t>
-  </si>
-  <si>
-    <t>IT부품</t>
-  </si>
-  <si>
-    <t>연구,개발</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육</t>
-  </si>
-  <si>
-    <t>출판,매체복제</t>
-  </si>
-  <si>
-    <t>음식료,담배</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WICS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스플레이장비와부품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반도체와반도체장비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상업서비스와공급품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>식품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자장비와기기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강관리장비와물품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -390,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -422,17 +281,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -443,6 +312,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -745,22 +620,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="8.6640625" style="7"/>
+    <col min="3" max="3" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1">
@@ -775,27 +650,22 @@
       <c r="G1" s="1">
         <v>2020</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="7">
         <v>2021</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>58470</v>
       </c>
       <c r="D2">
@@ -816,21 +686,16 @@
       <c r="I2">
         <v>20.96</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>5290</v>
       </c>
       <c r="D3">
@@ -851,21 +716,15 @@
       <c r="I3">
         <v>19.36</v>
       </c>
-      <c r="J3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>35900</v>
       </c>
       <c r="D4">
@@ -886,18 +745,15 @@
       <c r="I4">
         <v>21.12</v>
       </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>67160</v>
       </c>
       <c r="D5">
@@ -918,18 +774,15 @@
       <c r="I5">
         <v>30.5</v>
       </c>
-      <c r="J5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>64760</v>
       </c>
       <c r="D6">
@@ -950,21 +803,16 @@
       <c r="I6">
         <v>26.56</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>30190</v>
       </c>
       <c r="D7">
@@ -985,18 +833,15 @@
       <c r="I7">
         <v>19.82</v>
       </c>
-      <c r="J7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>200130</v>
       </c>
       <c r="D8">
@@ -1017,21 +862,15 @@
       <c r="I8">
         <v>25.68</v>
       </c>
-      <c r="J8" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>213420</v>
       </c>
       <c r="D9">
@@ -1052,21 +891,15 @@
       <c r="I9">
         <v>16.760000000000002</v>
       </c>
-      <c r="J9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>166090</v>
       </c>
       <c r="D10">
@@ -1087,21 +920,15 @@
       <c r="I10">
         <v>27.82</v>
       </c>
-      <c r="J10" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>69080</v>
       </c>
       <c r="D11">
@@ -1122,18 +949,16 @@
       <c r="I11">
         <v>16.46</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>76</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>140860</v>
       </c>
       <c r="D12">
@@ -1154,21 +979,15 @@
       <c r="I12">
         <v>17.059999999999999</v>
       </c>
-      <c r="J12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>290650</v>
       </c>
       <c r="D13">
@@ -1189,21 +1008,16 @@
       <c r="I13">
         <v>17.14</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>33290</v>
       </c>
       <c r="D14">
@@ -1224,18 +1038,15 @@
       <c r="I14">
         <v>23.92</v>
       </c>
-      <c r="J14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>106</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>220630</v>
       </c>
       <c r="D15">
@@ -1256,18 +1067,16 @@
       <c r="I15">
         <v>23.32</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>131970</v>
       </c>
       <c r="D16">
@@ -1288,21 +1097,15 @@
       <c r="I16">
         <v>17.62</v>
       </c>
-      <c r="J16" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>183300</v>
       </c>
       <c r="D17">
@@ -1323,21 +1126,16 @@
       <c r="I17">
         <v>26.36</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>146</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>243070</v>
       </c>
       <c r="D18">
@@ -1358,21 +1156,16 @@
       <c r="I18">
         <v>25.58</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>110790</v>
       </c>
       <c r="D19">
@@ -1393,18 +1186,16 @@
       <c r="I19">
         <v>20.68</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>165</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>36810</v>
       </c>
       <c r="D20">
@@ -1425,21 +1216,16 @@
       <c r="I20">
         <v>18.260000000000002</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>89970</v>
       </c>
       <c r="D21">
@@ -1460,18 +1246,16 @@
       <c r="I21">
         <v>42.7</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>131390</v>
       </c>
       <c r="D22">
@@ -1492,18 +1276,16 @@
       <c r="I22">
         <v>17.46</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>186</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>31330</v>
       </c>
       <c r="D23">
@@ -1524,18 +1306,16 @@
       <c r="I23">
         <v>17.7</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>101160</v>
       </c>
       <c r="D24">
@@ -1556,21 +1336,16 @@
       <c r="I24">
         <v>23.12</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>29960</v>
       </c>
       <c r="D25">
@@ -1591,18 +1366,16 @@
       <c r="I25">
         <v>16.34</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>209</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>285490</v>
       </c>
       <c r="D26">
@@ -1623,18 +1396,16 @@
       <c r="I26">
         <v>33.200000000000003</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>218</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>35890</v>
       </c>
       <c r="D27">
@@ -1655,18 +1426,16 @@
       <c r="I27">
         <v>20.56</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>225</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>263720</v>
       </c>
       <c r="D28">
@@ -1687,18 +1456,16 @@
       <c r="I28">
         <v>20.440000000000001</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>229</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>194700</v>
       </c>
       <c r="D29">
@@ -1719,21 +1486,16 @@
       <c r="I29">
         <v>18.54</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>230</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>36200</v>
       </c>
       <c r="D30">
@@ -1754,21 +1516,16 @@
       <c r="I30">
         <v>22.74</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>236</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>34950</v>
       </c>
       <c r="D31">
@@ -1789,21 +1546,16 @@
       <c r="I31">
         <v>20.02</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>241</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>216050</v>
       </c>
       <c r="D32">
@@ -1824,18 +1576,16 @@
       <c r="I32">
         <v>16.559999999999999</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>248</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>53580</v>
       </c>
       <c r="D33">
@@ -1856,18 +1606,16 @@
       <c r="I33">
         <v>24.42</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>251</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>44340</v>
       </c>
       <c r="D34">
@@ -1888,18 +1636,16 @@
       <c r="I34">
         <v>19.86</v>
       </c>
-      <c r="J34" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>275</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>83450</v>
       </c>
       <c r="D35">
@@ -1920,21 +1666,16 @@
       <c r="I35">
         <v>20.54</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="K35" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>280</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>119860</v>
       </c>
       <c r="D36">
@@ -1955,18 +1696,16 @@
       <c r="I36">
         <v>21.48</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>298</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>251370</v>
       </c>
       <c r="D37">
@@ -1987,18 +1726,16 @@
       <c r="I37">
         <v>14.44</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>314</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>93320</v>
       </c>
       <c r="D38">
@@ -2019,18 +1756,16 @@
       <c r="I38">
         <v>16.32</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>321</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>192440</v>
       </c>
       <c r="D39">
@@ -2051,18 +1786,16 @@
       <c r="I39">
         <v>16.559999999999999</v>
       </c>
-      <c r="J39" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>342</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>357230</v>
       </c>
       <c r="D40">
@@ -2083,21 +1816,16 @@
       <c r="I40">
         <v>24.02</v>
       </c>
-      <c r="J40" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>370</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>214180</v>
       </c>
       <c r="D41">
@@ -2118,18 +1846,16 @@
       <c r="I41">
         <v>15.74</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>398</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>92130</v>
       </c>
       <c r="D42">
@@ -2150,18 +1876,16 @@
       <c r="I42">
         <v>25.7</v>
       </c>
-      <c r="J42" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>403</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>278650</v>
       </c>
       <c r="D43">
@@ -2182,18 +1906,16 @@
       <c r="I43">
         <v>19.7</v>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>432</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>92730</v>
       </c>
       <c r="D44">
@@ -2214,18 +1936,16 @@
       <c r="I44">
         <v>21.86</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>463</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>89890</v>
       </c>
       <c r="D45">
@@ -2246,21 +1966,16 @@
       <c r="I45">
         <v>48.220000000000013</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>590</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>241520</v>
       </c>
       <c r="D46">
@@ -2281,18 +1996,16 @@
       <c r="I46">
         <v>24.5</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>613</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>241790</v>
       </c>
       <c r="D47">
@@ -2313,21 +2026,16 @@
       <c r="I47">
         <v>20.98</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>633</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>122310</v>
       </c>
       <c r="D48">
@@ -2348,21 +2056,16 @@
       <c r="I48">
         <v>23</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="J48" s="2"/>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>635</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>130580</v>
       </c>
       <c r="D49">
@@ -2383,21 +2086,16 @@
       <c r="I49">
         <v>20.5</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>729</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>225330</v>
       </c>
       <c r="D50">
@@ -2418,18 +2116,16 @@
       <c r="I50">
         <v>16.2</v>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="J50" s="2"/>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>788</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>49720</v>
       </c>
       <c r="D51">
@@ -2450,21 +2146,16 @@
       <c r="I51">
         <v>30.12</v>
       </c>
-      <c r="J51" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>832</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>263690</v>
       </c>
       <c r="D52">
@@ -2485,21 +2176,16 @@
       <c r="I52">
         <v>27.66</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="K52" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>941</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>65370</v>
       </c>
       <c r="D53">
@@ -2520,18 +2206,16 @@
       <c r="I53">
         <v>19.38</v>
       </c>
-      <c r="J53" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="J53" s="2"/>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>1086</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>260970</v>
       </c>
       <c r="D54">
@@ -2552,21 +2236,16 @@
       <c r="I54">
         <v>19.440000000000001</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="K54" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>1309</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>169330</v>
       </c>
       <c r="D55">
@@ -2587,9 +2266,7 @@
       <c r="I55">
         <v>25.88</v>
       </c>
-      <c r="J55" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="J55" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
